--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3733.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3733.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.2200047654258</v>
+        <v>2.400803565979004</v>
       </c>
       <c r="B1">
-        <v>2.264597039505359</v>
+        <v>2.230364322662354</v>
       </c>
       <c r="C1">
-        <v>5.354253826735542</v>
+        <v>1.61673104763031</v>
       </c>
       <c r="D1">
-        <v>3.090852742182321</v>
+        <v>1.722981214523315</v>
       </c>
       <c r="E1">
-        <v>1.176581770622522</v>
+        <v>1.586771488189697</v>
       </c>
     </row>
   </sheetData>
